--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Problem</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/64fc3cd71b01d109d638</t>
+  </si>
+  <si>
+    <t>Delete Tree</t>
+  </si>
+  <si>
+    <t>http://ideone.com/g23yCk</t>
   </si>
 </sst>
 </file>
@@ -551,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -704,7 +710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -712,7 +718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -720,7 +726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -728,7 +734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -736,7 +742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -744,7 +750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -752,7 +758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -760,7 +766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -768,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -776,7 +782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -784,18 +790,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="A10" r:id="rId2" display="https://gist.github.com/baranis/c027031b1505227abd21"/>
+    <hyperlink ref="C29" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="21075" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Problem</t>
   </si>
@@ -189,10 +189,13 @@
     <t>https://gist.github.com/baranis/64fc3cd71b01d109d638</t>
   </si>
   <si>
-    <t>Delete Tree</t>
-  </si>
-  <si>
     <t>http://ideone.com/g23yCk</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/927e23530db540e8ae06</t>
+  </si>
+  <si>
+    <t>Delete all leaves in a tree</t>
   </si>
 </sst>
 </file>
@@ -560,8 +563,8 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,10 +803,13 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Problem</t>
   </si>
@@ -189,13 +189,19 @@
     <t>https://gist.github.com/baranis/64fc3cd71b01d109d638</t>
   </si>
   <si>
+    <t>https://gist.github.com/baranis/927e23530db540e8ae06</t>
+  </si>
+  <si>
+    <t>Delete all leaves in a tree</t>
+  </si>
+  <si>
+    <t>http://ideone.com/gv4dZS</t>
+  </si>
+  <si>
+    <t>Delete Tree</t>
+  </si>
+  <si>
     <t>http://ideone.com/g23yCk</t>
-  </si>
-  <si>
-    <t>https://gist.github.com/baranis/927e23530db540e8ae06</t>
-  </si>
-  <si>
-    <t>Delete all leaves in a tree</t>
   </si>
 </sst>
 </file>
@@ -560,11 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,20 +809,27 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>57</v>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="A10" r:id="rId2" display="https://gist.github.com/baranis/c027031b1505227abd21"/>
-    <hyperlink ref="C29" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -195,13 +195,13 @@
     <t>Delete all leaves in a tree</t>
   </si>
   <si>
-    <t>http://ideone.com/gv4dZS</t>
-  </si>
-  <si>
     <t>Delete Tree</t>
   </si>
   <si>
     <t>http://ideone.com/g23yCk</t>
+  </si>
+  <si>
+    <t>http://ideone.com/VrZ0e8</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,21 +815,23 @@
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="A10" r:id="rId2" display="https://gist.github.com/baranis/c027031b1505227abd21"/>
+    <hyperlink ref="C29" r:id="rId3"/>
+    <hyperlink ref="C30" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Problem</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>http://ideone.com/VrZ0e8</t>
+  </si>
+  <si>
+    <t>Clone the linked given with random pointers</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/e73a036942ba12dd3</t>
   </si>
 </sst>
 </file>
@@ -566,11 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,6 +830,14 @@
       </c>
       <c r="C30" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Problem</t>
   </si>
@@ -208,13 +208,16 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/e73a036942ba12dd3</t>
+  </si>
+  <si>
+    <t>http://ideone.com/UbwQql</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +241,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -260,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -270,6 +286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -575,8 +592,8 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +607,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -603,6 +620,9 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -846,8 +866,10 @@
     <hyperlink ref="A10" r:id="rId2" display="https://gist.github.com/baranis/c027031b1505227abd21"/>
     <hyperlink ref="C29" r:id="rId3"/>
     <hyperlink ref="C30" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Problem</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>http://ideone.com/UbwQql</t>
+  </si>
+  <si>
+    <t>Given a BST , replace a node value with the sum of all the elements larger than the current node.-Execute</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/f38069d98fb18a199081</t>
   </si>
 </sst>
 </file>
@@ -589,11 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,6 +864,14 @@
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Problem</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/f38069d98fb18a199081</t>
+  </si>
+  <si>
+    <t>http://ideone.com/vRL45m</t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,6 +641,9 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -881,9 +887,10 @@
     <hyperlink ref="C29" r:id="rId3"/>
     <hyperlink ref="C30" r:id="rId4"/>
     <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Problem</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>http://ideone.com/vRL45m</t>
+  </si>
+  <si>
+    <t>You are given a linked list and a parameter k. You will have to swap values in a certain fashion, swap value of node 1 with node k, then node (k+1) with node 2k and go on doing this in the similar fashion</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/f79668caceff8c672afa</t>
   </si>
 </sst>
 </file>
@@ -598,11 +604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,6 +884,14 @@
       </c>
       <c r="B32" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="21075" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="21075" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Problem</t>
   </si>
@@ -226,6 +226,16 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/f79668caceff8c672afa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ There is a binary tree of size N. All nodes are numbered between 1-N(inclusive). 
+There is a N*N integer matrix Arr[N][N], all elements are initialized to zero. So for all the nodes A and B,
+ put Arr[A][B] = 1 if A is an ancestor of B (NOT just the immediate ancestor).-Execute
+</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/fae7039cd8d4ec5af9e3</t>
   </si>
 </sst>
 </file>
@@ -604,11 +614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,6 +902,14 @@
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="21075" windowHeight="9915"/>
+    <workbookView xWindow="240" yWindow="300" windowWidth="21075" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Problem</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/fae7039cd8d4ec5af9e3</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/e1973260ec9a82da8d65</t>
+  </si>
+  <si>
+    <t>Given a Binary Tree, check if every node is sum of all of its children.</t>
   </si>
 </sst>
 </file>
@@ -614,11 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,6 +916,14 @@
       </c>
       <c r="B34" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="300" windowWidth="21075" windowHeight="9855"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="21075" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Problem</t>
   </si>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>Given a Binary Tree, check if every node is sum of all of its children.</t>
+  </si>
+  <si>
+    <t>Given a Singly Linked List which contains integers, bring odd values in the beginning and even values at the end. The relative order of odd values, and that of even values should be maintained as it is.
+e.g. 34, 45, 78, 10, 33, 5
+    o/p: 45, 33, 5, 34, 78, 10</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/9dfd93be126b9f30adfc</t>
   </si>
 </sst>
 </file>
@@ -620,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,6 +934,14 @@
         <v>72</v>
       </c>
     </row>
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -934,9 +950,10 @@
     <hyperlink ref="C30" r:id="rId4"/>
     <hyperlink ref="C2" r:id="rId5"/>
     <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="B36" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Problem</t>
   </si>
@@ -250,6 +250,39 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/9dfd93be126b9f30adfc</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/2116149719af06a174fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a Binary Tree, print left view of it. Left view of a Binary Tree is set of nodes visible when tree is visited from left side. Left view of following tree is 12, 10, 25.
+          12
+       /     \
+     10       30
+            /    \
+          25      40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a binary tree. I need to print the nodes in vertical line zigzag manner. For example: 1st vertical line from top to bottom, 2nd vertical line from bottom to top,3rd vertical line from top to bottom and so on
+                       5
+                    /     \
+                   3       7
+                  / \     / \
+   1   4   6   8
+                    /    \     \
+    2    9    10
+Answer would be –
+1
+2 3
+5 4 6
+9 7
+8
+10
+</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/91ae03cdafc4b86777b7</t>
   </si>
 </sst>
 </file>
@@ -628,11 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,6 +973,22 @@
       </c>
       <c r="B36" s="2" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Problem</t>
   </si>
@@ -283,6 +283,14 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/91ae03cdafc4b86777b7</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/3ee7718a2ecfdd09a044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Two nodes of a BST are given. Print the path from 1st node to the 2nd node. 
+You are also provided the parent pointers in addition to normal left and right pointers.</t>
   </si>
 </sst>
 </file>
@@ -661,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
@@ -988,6 +996,14 @@
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1000,9 +1016,10 @@
     <hyperlink ref="C2" r:id="rId5"/>
     <hyperlink ref="C3" r:id="rId6"/>
     <hyperlink ref="B36" r:id="rId7"/>
+    <hyperlink ref="B39" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Problem</t>
   </si>
@@ -291,6 +291,12 @@
     <t xml:space="preserve">
 Two nodes of a BST are given. Print the path from 1st node to the 2nd node. 
 You are also provided the parent pointers in addition to normal left and right pointers.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/359ef708a44cd9d37aed</t>
+  </si>
+  <si>
+    <t>Given a binary tree, change the right pointer of every leaf node to the next leaf node (right to it but may be on different level).</t>
   </si>
 </sst>
 </file>
@@ -669,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,6 +1011,14 @@
       </c>
       <c r="B39" s="2" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Problem</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Given a binary tree, change the right pointer of every leaf node to the next leaf node (right to it but may be on different level).</t>
+  </si>
+  <si>
+    <t>http://ideone.com/KDIRqw</t>
   </si>
 </sst>
 </file>
@@ -678,8 +681,8 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,6 +780,9 @@
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1031,9 +1037,10 @@
     <hyperlink ref="C3" r:id="rId6"/>
     <hyperlink ref="B36" r:id="rId7"/>
     <hyperlink ref="B39" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Problem</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>http://ideone.com/KDIRqw</t>
+  </si>
+  <si>
+    <t>http://ideone.com/mk12Vi</t>
   </si>
 </sst>
 </file>
@@ -681,8 +684,8 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +966,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -971,7 +974,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -979,15 +982,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -1038,9 +1044,10 @@
     <hyperlink ref="B36" r:id="rId7"/>
     <hyperlink ref="B39" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C35" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="21075" windowHeight="9795"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="21075" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Problem</t>
   </si>
@@ -303,6 +303,21 @@
   </si>
   <si>
     <t>http://ideone.com/mk12Vi</t>
+  </si>
+  <si>
+    <t>Given a dl representing the spiral level order traversal of a binary tree,convert it to a binary tree inplace. In Last level, nodes will be either to the right or left only. complete code in C
+eg 1-2-3-4-5-6-7-8
+o/p--
+  1
+       /   \
+            3      2
+           /  \   /  \
+          4   5  6    7
+                       \
+                        8</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/e554d0031d2b2fae5ead</t>
   </si>
 </sst>
 </file>
@@ -681,11 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,6 +1046,14 @@
       </c>
       <c r="B40" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Problem</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/e554d0031d2b2fae5ead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given a binary tree, find the number of pairs where sum of 2 nodes’ values equal to k
+Eg:
+ 1
+2 3
+4 5 7 
+Say k=7, output =2 ( 2+5, 3+4)</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/53a12914a51782a4836d</t>
   </si>
 </sst>
 </file>
@@ -696,11 +708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,6 +1068,14 @@
         <v>87</v>
       </c>
     </row>
+    <row r="42" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -1068,9 +1088,10 @@
     <hyperlink ref="B39" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
     <hyperlink ref="C35" r:id="rId10"/>
+    <hyperlink ref="B42" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="21075" windowHeight="9735"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="20700" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Problem</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/53a12914a51782a4836d</t>
+  </si>
+  <si>
+    <t>http://ideone.com/jPggDs</t>
   </si>
 </sst>
 </file>
@@ -711,8 +714,8 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,6 +764,9 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Problem</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>http://ideone.com/jPggDs</t>
+  </si>
+  <si>
+    <t>Mirror Tree</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/c38efc01b0dbf294333e</t>
   </si>
 </sst>
 </file>
@@ -711,11 +717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,6 +1086,14 @@
       </c>
       <c r="B42" s="2" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="20700" windowHeight="9735"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="20700" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Problem</t>
   </si>
@@ -339,6 +339,19 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/c38efc01b0dbf294333e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a large file with huge number of words group the anagrams of a word
+     hai how are you. iah ohw done woh.
+o/p:
+hai -&gt;iah
+how -&gt;woh -&gt;ohw
+done
+are</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/d5b1fd0667512d358df6</t>
   </si>
 </sst>
 </file>
@@ -717,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1107,14 @@
       </c>
       <c r="B43" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1109,9 +1130,10 @@
     <hyperlink ref="C10" r:id="rId9"/>
     <hyperlink ref="C35" r:id="rId10"/>
     <hyperlink ref="B42" r:id="rId11"/>
+    <hyperlink ref="B44" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Problem</t>
   </si>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/d5b1fd0667512d358df6</t>
+  </si>
+  <si>
+    <t>Given a Binary Tree, extract all leaves of it in a Doubly Linked List (DLL). Note that the DLL need to be created in-place. Assume that the node structure of DLL and Binary Tree is same, only the meaning of left and right pointers are different. In DLL, left means previous pointer and right means next pointer.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/af678205970555fa43df</t>
+  </si>
+  <si>
+    <t>First non-repeating character in string</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/929de79c1ffb4c4e2a41</t>
   </si>
 </sst>
 </file>
@@ -730,11 +742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,6 +1127,22 @@
       </c>
       <c r="B44" s="2" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Problem</t>
   </si>
@@ -364,6 +364,21 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/929de79c1ffb4c4e2a41</t>
+  </si>
+  <si>
+    <t>Given a Binary Tree, find the deepest leaf node that is left child of its parent. For example, consider the following tree. The deepest left leaf node is the node with value 9.
+       1
+     /   \
+    2     3
+  /      /  \  
+ 4      5    6
+        \     \
+         7     8
+        /       \
+       9         10</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/0aa9f6bf6bcfca251773</t>
   </si>
 </sst>
 </file>
@@ -742,11 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,6 +1158,14 @@
       </c>
       <c r="B46" s="2" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Problem</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/0aa9f6bf6bcfca251773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a string, recursively remove adjacent duplicate characters from string. The output string should not have any adjacent duplicates. </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/a7979b20b41ed458186b</t>
   </si>
 </sst>
 </file>
@@ -757,11 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,6 +1172,14 @@
       </c>
       <c r="B47" s="2" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="480" windowWidth="20700" windowHeight="9675"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Problem</t>
   </si>
@@ -386,12 +386,15 @@
   <si>
     <t>https://gist.github.com/baranis/a7979b20b41ed458186b</t>
   </si>
+  <si>
+    <t>http://ideone.com/TAXHIA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,7 +554,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -586,7 +588,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,22 +763,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="75" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -788,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,7 +800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="45">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -810,7 +811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -821,7 +822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -829,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -837,7 +838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -845,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -853,15 +854,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -872,7 +876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -880,7 +884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -888,7 +892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -896,7 +900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -904,7 +908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="45">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -912,7 +916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -920,7 +924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -928,7 +932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="45">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -936,7 +940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -944,7 +948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -952,7 +956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -960,7 +964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -968,7 +972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -976,7 +980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -984,7 +988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -992,7 +996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1008,7 +1012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="45">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="105">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="105">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="120">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="315">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="60">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="195">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="150">
       <c r="A42" s="3" t="s">
         <v>88</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="120">
       <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="60">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="195">
       <c r="A47" s="3" t="s">
         <v>99</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1203,24 +1207,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="480" windowWidth="20700" windowHeight="9675"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Problem</t>
   </si>
@@ -389,12 +389,19 @@
   <si>
     <t>http://ideone.com/TAXHIA</t>
   </si>
+  <si>
+    <t xml:space="preserve">Print cousins of a given node (Not sibling)
+</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/357d553e3630e3e945c9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +561,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -588,6 +596,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -763,22 +772,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -789,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,7 +809,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -811,7 +820,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -822,7 +831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -830,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -838,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -846,7 +855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -854,7 +863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -865,7 +874,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -876,7 +885,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -884,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -892,7 +901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -900,7 +909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -908,7 +917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -916,7 +925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -924,7 +933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -932,7 +941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -940,7 +949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -948,7 +957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -956,7 +965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -964,7 +973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -972,7 +981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -980,7 +989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -988,7 +997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1004,7 +1013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1012,7 +1021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -1031,7 +1040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1055,7 +1064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="105">
+    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -1071,7 +1080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -1082,7 +1091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="105">
+    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="120">
+    <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="315">
+    <row r="38" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="60">
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -1122,7 +1131,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="195">
+    <row r="41" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="150">
+    <row r="42" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>88</v>
       </c>
@@ -1138,7 +1147,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="120">
+    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60">
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="195">
+    <row r="47" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>99</v>
       </c>
@@ -1178,12 +1187,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1207,24 +1224,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Problem</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/357d553e3630e3e945c9</t>
+  </si>
+  <si>
+    <t>You are given a file with many words. You are given a word as an input and you have to find every anagram of that word in the file.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/f7dedc611135bcb25063</t>
   </si>
 </sst>
 </file>
@@ -773,11 +779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,6 +1207,14 @@
       </c>
       <c r="B49" s="2" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Problem</t>
   </si>
@@ -401,6 +401,13 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/f7dedc611135bcb25063</t>
+  </si>
+  <si>
+    <t>WAP to encode and decode string.
+     aabbbbcccd &lt;-&gt;a2b4c3d1</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/591fc5dfe2cd9b28a69e</t>
   </si>
 </sst>
 </file>
@@ -779,11 +786,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,6 +1222,14 @@
       </c>
       <c r="B50" s="2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="480" windowWidth="20700" windowHeight="9675"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Problem</t>
   </si>
@@ -409,12 +409,15 @@
   <si>
     <t>https://gist.github.com/baranis/591fc5dfe2cd9b28a69e</t>
   </si>
+  <si>
+    <t>http://ideone.com/Y2V2kV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,7 +577,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -609,7 +611,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -785,22 +786,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="75" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -811,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,7 +823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="45">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -833,7 +834,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -844,7 +845,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -852,7 +853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -860,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -868,7 +869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -876,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -887,7 +888,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -898,7 +899,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -906,7 +907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -914,15 +915,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -930,7 +934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="45">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -938,7 +942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -946,7 +950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -954,7 +958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="45">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -962,7 +966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -970,7 +974,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -978,7 +982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -986,7 +990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -994,7 +998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
@@ -1061,7 +1065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="45">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="105">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -1093,7 +1097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="105">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="120">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="315">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1128,7 +1132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="60">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="195">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="150">
       <c r="A42" s="3" t="s">
         <v>88</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="120">
       <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="60">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="195">
       <c r="A47" s="3" t="s">
         <v>99</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="30">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="30">
       <c r="A50" s="3" t="s">
         <v>106</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="30">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -1253,24 +1257,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Problem</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>http://ideone.com/Y2V2kV</t>
+  </si>
+  <si>
+    <t>http://ideone.com/bbbXHe</t>
   </si>
 </sst>
 </file>
@@ -790,8 +793,8 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1079,6 +1082,9 @@
       </c>
       <c r="B32" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="45">

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Problem</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>http://ideone.com/bbbXHe</t>
+  </si>
+  <si>
+    <t>http://ideone.com/Vbiswh</t>
   </si>
 </sst>
 </file>
@@ -794,7 +797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -999,6 +1002,9 @@
       </c>
       <c r="B22" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3">

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Problem</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>http://ideone.com/Vbiswh</t>
+  </si>
+  <si>
+    <t>http://ideone.com/WO7xJW</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1045,6 +1048,9 @@
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3">

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="480" windowWidth="20700" windowHeight="9675"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Problem</t>
   </si>
@@ -421,12 +421,24 @@
   <si>
     <t>http://ideone.com/WO7xJW</t>
   </si>
+  <si>
+    <t>Heap sort</t>
+  </si>
+  <si>
+    <t>Next higher number with given digits</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/b0b203dbb5112280a04d</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/a5ea7cb5c3eaac67097c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +598,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -620,6 +633,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -795,22 +809,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -821,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -832,7 +846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -843,7 +857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -854,7 +868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -862,7 +876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -870,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -878,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -886,7 +900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -897,7 +911,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -908,7 +922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -916,7 +930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -924,7 +938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -935,7 +949,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -943,7 +957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -951,7 +965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -959,7 +973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -967,7 +981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -975,7 +989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -983,7 +997,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -999,7 +1013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1010,7 +1024,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1018,7 +1032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1026,7 +1040,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1034,7 +1048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1042,7 +1056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1053,7 +1067,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
@@ -1061,7 +1075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -1072,7 +1086,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
@@ -1080,7 +1094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1088,7 +1102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1099,7 +1113,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -1107,7 +1121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="105">
+    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -1115,7 +1129,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -1126,7 +1140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="105">
+    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -1134,7 +1148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="120">
+    <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -1142,7 +1156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="315">
+    <row r="38" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1150,7 +1164,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="60">
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -1158,7 +1172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -1166,7 +1180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="195">
+    <row r="41" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -1174,7 +1188,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="150">
+    <row r="42" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>88</v>
       </c>
@@ -1182,7 +1196,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1190,7 +1204,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="120">
+    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
@@ -1198,7 +1212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60">
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1206,7 +1220,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
@@ -1214,7 +1228,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="195">
+    <row r="47" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>99</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1230,7 +1244,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -1238,7 +1252,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>106</v>
       </c>
@@ -1246,12 +1260,28 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30">
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1275,24 +1305,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="480" windowWidth="20700" windowHeight="9675"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="20700" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Problem</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/a5ea7cb5c3eaac67097c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of integers is given, find all the ranges present in the array. eg. 1 6 4 2 3 — ranges will be {1-4} and {6}. </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/ce3605211314cc92e5ee</t>
   </si>
 </sst>
 </file>
@@ -810,11 +816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,6 +1288,14 @@
       </c>
       <c r="B53" s="2" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="540" windowWidth="20700" windowHeight="9615"/>
+    <workbookView xWindow="240" yWindow="600" windowWidth="20700" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -514,6 +520,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -819,8 +826,8 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1033,7 @@
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1069,7 +1076,7 @@
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1115,7 +1122,7 @@
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>111</v>
       </c>
     </row>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="600" windowWidth="20700" windowHeight="9555"/>
+    <workbookView xWindow="240" yWindow="660" windowWidth="20700" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Problem</t>
   </si>
@@ -438,6 +438,24 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/ce3605211314cc92e5ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a binary tree , where as each node contains some integer values (value can be either positive or negative , and tree is not BST). Write a function to delete a path in the tree which is from root to leaf node where it is not a k-heavyweight path. k- heavyweight = the sum of the node values in the path from root to leaf should be greater than or equal to k . If the patch sum is less than k , we need to delete the path Example : Given following tree and value of k = 13 8 3 10 1 6 14 4 7 13 (here 8 is root, 3 and 10 are left and right children of 8. 1 and 6 are left and right children f 3, 4 and 7 are left and right children of 6, 14 is right child of 10 and finally 13 is left child of 14) The path which is not k heavy weight is 8+3+1 = 12 &lt; 13 so need to delete the nodes 1,3,8 but 3,8 are also part of path 8+3+6+4 = 21 which is greater than K hence 3 and 8 should not deleted and only 1 should be deleted. So Write a function to delete path which is not k heavy weight. </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/b1866fed04271c4d8527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print pascal triangle and your output should be same as pascal triangular form (have to consider the space separation) </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/535ce6eb94fdbd17c6d3</t>
+  </si>
+  <si>
+    <t>Simulate Reversed level order traversal</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/a4b6d9c03e8d4faf4734</t>
   </si>
 </sst>
 </file>
@@ -823,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,6 +1321,30 @@
       </c>
       <c r="B54" s="2" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Problem</t>
   </si>
@@ -456,6 +456,24 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/a4b6d9c03e8d4faf4734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a String s and int r , first fill each character row wise and print column wise.
+for e.g. String s = “abcdefgh” and r = 3
+so filling column wise would give :
+a d g
+b e h
+c f</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/bc1ad0b8434cb05be98f</t>
+  </si>
+  <si>
+    <t>Two string S1 and S2 are given, check whether S1 is a shifted version of S2 Eg abcd-s1 dabc cdab ...both the strings are shifted version</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/10c5dc0ebe14901cc022</t>
   </si>
 </sst>
 </file>
@@ -841,11 +859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,6 +1363,22 @@
       </c>
       <c r="B57" s="2" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="660" windowWidth="20700" windowHeight="9495"/>
+    <workbookView xWindow="240" yWindow="720" windowWidth="20700" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Problem</t>
   </si>
@@ -474,6 +474,38 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/10c5dc0ebe14901cc022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given a binary tree in which every node has left, right and a next pointer. Next pointer is null initially.
+You have to modify the tree in such a way that every node’s next pointer will point to the next node on the same level.
+O(1) space complexity code was required to be written.
+Eg.
+   1                                     1
+      2       3              ======&gt;   2-----------------&gt;3
+    4  5        6                    4--&gt;5-----------------&gt;6  </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/03aaee6bef4748471f97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given binary tree, connect all the nodes which are in same column. 1 caveat was that same 1 node can have 2 parents. Here as in example, node 7 is being pointed by 2 and 6.
+He deed the dry run with example and code and he was OK with final approach.
+        1
+       /   \
+      2     6
+     /  \   / \
+   3      7    8
+   /           /  
+  4         12 
+ / \           \     
+5  9           13
+    \             \
+     10           14
+      \
+       11 </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/f64f25c1dac51d3812e1</t>
   </si>
 </sst>
 </file>
@@ -859,11 +891,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,6 +1411,22 @@
       </c>
       <c r="B59" s="2" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1395,9 +1443,10 @@
     <hyperlink ref="C35" r:id="rId10"/>
     <hyperlink ref="B42" r:id="rId11"/>
     <hyperlink ref="B44" r:id="rId12"/>
+    <hyperlink ref="B60" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="720" windowWidth="20700" windowHeight="9435"/>
+    <workbookView xWindow="240" yWindow="900" windowWidth="20700" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Problem</t>
   </si>
@@ -506,6 +506,147 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/f64f25c1dac51d3812e1</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/2a8c1c1a329b7615abd6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Find the lenght of longest path in a binary tree(diameter). I gave a O (nlogn) solution. He wanted O (n) solution. did that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given a zigzag traversal construct a tree from it. Full working code was asked.
+ eg. 1 3 2 4 5 6 7 9 8
+   1
+               2   3
+                  4   5  6   7
+                8  9</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/c5b701d9f5d9a89e8c58</t>
+  </si>
+  <si>
+    <t>Trim the Given BST by given min and max values. It means remove the nodes which have values less than min or greater than max</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/72e78a9652efcbd123c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array containing both positive and negative elements, arrange in such a manner — 1 positive number, then 1 negative,then 1 positive and so on. If number of negative numbers are more, extra numbers should be kept in end and vice versa. Note the order of negative and positive elements should be same in the modified array and you are not allowed to use any extra space" </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/0c8e654f41191a9a6941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">least common ancestor in a binary tree [Note : not binary search tree ] [ </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/f63fddef2a6d77d24cb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Implement a stack using 2 queues. Now optimize the implementation. " </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/d26cc0a55472cd0c48c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Given a class with n people,where each people plays a game with all other people. Results are with you. You have to arrange them in a queue with a condition that, a[i] should have won a[i-1], for all I, you don’t need to care about a[i-2] . (a[i] may win or lose a[i-2])." </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/729d0e07517794e0ca44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Given a binary tree with parent pointers, find the right sibling of a given node(pointer to the node will be given), if it doesn’t exist return null. Do it in O(1) space and O(n) time." </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/c832441dd3d553103497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a number which denotes number of pair of parenthesis(only one type of parenthesis). Print all the valid permutation of those parenthesis(Approach + code)." </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/8c5d70684284405b5acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Given a string. Write a program to form a string with first character of all words. Ex: The bucket is full of water Output: Tbifow Check all edge and corner cases. " </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/f28b8aac62df732a1a04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Right Node of the given key in a binary tree </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/cbdb661588867fb4b8d5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a binary tree is balanced or not. </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/e2e72904653039291145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a tree where each node contains at max k children (a K-children tree, a binary tree contains at max 2 children left and right , a k-children tree can have at max K children ) Implement below two functions, You design your Node class in such a way that the lock and unlock operations can be done in minimum time (best case time complexity is equal to height of the tree ) a) private static boolean lock(Node n) b) private static boolean unlock(Node n) In both the functions the given node ‘n’ should be locked or unlock and return value is boolean whether the operations lock or unlock are success or not. The conditions for lock and unlock as follows. -&gt; We can lock given node, if and only if there no locked node exists as in its children hierarchy ( if you consider a tree with given node as root, we can lock given node, if there is no lock in that tree ) and in the parent hierarchy till root (the path from root to given node should not contain any locked node). -&gt; unlock will release the lock for given locked node. NOTE : You need to create you own class which holds tree node so that both functions will be achieved with least time complexity O(height of the tree) in worst case" </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/09a6a79dd6834fa996e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement 3 stacks in array, all approaches and code </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/8d0011f1eb91fe899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"An array of n integers is there in which the range of elements is n, i.e., the difference between maximum and minimum number is n. Find the repeating numbers. Question 2: An extension of Question 1. Was asked to find number of times each number is repeated"
+</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/840e1153a303edf2348e</t>
+  </si>
+  <si>
+    <t>Find the longest even length palindromic substring in a string.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/e3f08dba7b3896c51df1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You are given an array of integers(positive and negative). You have to find if there exists any sequence of numbers in it which has the sum zero. If there is any print the start index else print -1. For example: 1 2 3 -1 4 -3 2 is the array and the sequence is -1 4 -3 which returns sum as zero. Code and algorithm, both were required." </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/1a20c4f5ea2f70cf555a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Given a 2d matrix in which rows are sorted in ascending order and columns are also sorted in ascending order .I need to find an element in optimal time complexity In the same (M X N) matrix I have to print the matrix in increasing order of elements .write code for it(I used heap for that purpose and used concept of merging k sorted array) " </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/b0f3176d3ba63032193f</t>
+  </si>
+  <si>
+    <t>" Given a singly linked list,in which the last node points to the middle node,delete the middle node and remove the loop."</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/3bf61345a03226cae34e</t>
+  </si>
+  <si>
+    <t>" Given an array of size n, find the majority element.Majority element is one which gets repeated for more than n/2 times."</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/5d2b3d351b46bb9258d5</t>
+  </si>
+  <si>
+    <t>Convert a given number to Roman numbers.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/62c666210714329f66c2</t>
+  </si>
+  <si>
+    <t>SquareRootOfNumber</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/c88ce128052b90fece6b</t>
   </si>
 </sst>
 </file>
@@ -891,11 +1032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,6 +1568,182 @@
       </c>
       <c r="B61" s="2" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1444,9 +1761,10 @@
     <hyperlink ref="B42" r:id="rId11"/>
     <hyperlink ref="B44" r:id="rId12"/>
     <hyperlink ref="B60" r:id="rId13"/>
+    <hyperlink ref="B74" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Problem</t>
   </si>
@@ -647,6 +647,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/c88ce128052b90fece6b</t>
+  </si>
+  <si>
+    <t>Given a BT check if there is a BST in it. If it exists print the largest BST in the BT.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/d25c7a54c143ef6303a2</t>
   </si>
 </sst>
 </file>
@@ -1032,11 +1038,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,6 +1750,14 @@
       </c>
       <c r="B83" s="2" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="900" windowWidth="20700" windowHeight="9255"/>
+    <workbookView xWindow="240" yWindow="960" windowWidth="20700" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Problem</t>
   </si>
@@ -653,6 +653,30 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/d25c7a54c143ef6303a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Given a word and a text, return the count of the occurences of anagrams of the word in the text. For eg. word is “for” and the text is “forxxorfxdofr”, anagrams of “for” will be “ofr”, “orf”,”fro”, etc. So the answer would be 3 for this particular example. " </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/cb1a8551981fdf3393c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Given an array of integers, find an index such that if you split the array into two parts the absolute value of the difference between the sum of elements in both parts had to be minimum. After giving him the logic, he changed it to split it into 3 parts such that sum of elements in all of them are equal. I had to code this one." </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/33c1b5980dc1bc500a6d</t>
+  </si>
+  <si>
+    <t>How will you implement a stack using a priority queue. Push and pop should be in O(1).</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/650ca2deca92ea9255df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Given two strings STR1 and STR2 .we need to find longest substring in STR1 whose all characters are taken from string STR2(was asked to write code for it in optimal time) STR1-abcdefacbccbagfacbacer STR2-abc ans : length : 7 acbccba (from position 7 to 13) " </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/544f53eabbf6a35f7c97</t>
   </si>
 </sst>
 </file>
@@ -1038,11 +1062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,6 +1782,38 @@
       </c>
       <c r="B84" s="2" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Problem</t>
   </si>
@@ -677,6 +677,14 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/544f53eabbf6a35f7c97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"
+ Given 2 string , find whether 2nd is sub-string of 1st or not. (it would be great if you solve with KMP)"
+</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/656eb265a8581052e10b</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -1814,6 +1822,14 @@
       </c>
       <c r="B88" s="2" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Problem</t>
   </si>
@@ -685,6 +685,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/656eb265a8581052e10b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of strings, find the string which is made up of maximum number of other strings contained in the same array. e.g. “rat”, ”cat”, “abc”, “xyz”, “abcxyz”, “ratcatabc”, “xyzcatratabc” Answer: “xyzcatratabc” “abcxyz” contains 2 other strings, “ratcatabc” contains 3 other strings, “xyzcatratabc” contains 4 other strings" </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/c3d669eb7dfdd2840794</t>
   </si>
 </sst>
 </file>
@@ -1070,11 +1076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,6 +1836,14 @@
       </c>
       <c r="B89" s="2" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="960" windowWidth="20700" windowHeight="9195"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="20700" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Problem</t>
   </si>
@@ -691,6 +691,45 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/c3d669eb7dfdd2840794</t>
+  </si>
+  <si>
+    <t>"You are given an array whose each element represents the height of the tower. The width of every tower is 1. It starts raining. How much water is collected between the towers? Eg. [1,5,3,7,2] – then answer is 2 units between towers 5 and 7.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/cb70fd3de49d0232b4f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+" Find min and max element of an unsorted integer array. Very simple question you can do two pass on the array and find it, but number of comparisons will be o(2n). He asked me to reduce it. I gave an algorithm which will do the same in O((n/2)*3) which is fairly less than o(2n). They were impressed on my solution and asked weather I have any question ."</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/d9910a19f742784f1227</t>
+  </si>
+  <si>
+    <t>" Find the distance between two nodes in a binary tree, no parent pointers are given. I could solve this in post order traversal in o(n) time complexity"</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/a9945264c5c2eb10c61f</t>
+  </si>
+  <si>
+    <t>Given a binary tree, where every node value is a Digit from 1-9 .Find the sum of all the numbers which are formed from root to leaf paths . (Algo + Code )
+                                          6
+                                      /       \
+                                    3          5
+                                  /   \           \
+                                 2     5          4  
+                                      /   \
+                                     7    4
+  There are 4 leafs, hence 4 root to leaf paths:
+   Path                    Number
+  6-&gt;3-&gt;2                  632
+  6-&gt;3-&gt;5-&gt;7               6357
+  6-&gt;3-&gt;5-&gt;4               6354
+  6-&gt;5&gt;4                   654   
+Answer = 632 + 6375 + 6354 + 654 = 13997</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/4c3cae724989519edf98</t>
   </si>
 </sst>
 </file>
@@ -1076,11 +1115,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,6 +1883,38 @@
       </c>
       <c r="B90" s="2" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1020" windowWidth="20700" windowHeight="9135"/>
+    <workbookView xWindow="240" yWindow="1080" windowWidth="20700" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Problem</t>
   </si>
@@ -730,6 +730,26 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/4c3cae724989519edf98</t>
+  </si>
+  <si>
+    <t>Given a boolean 2-D matrix, find the number of unique rows in it.( Algo + Code )</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/ea57689f94bc831f1517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2) Given an array if in a position let a[i][j] =1 then print all it’s row and column 1. You should not consider a position 1 after you made it 1 in your past computation.
+Note: In this question it is asked to not use any extra space.
+sample(input):
+(i) 00100            (ii)10
+    00000                01
+output:
+(i) 11111            (ii)11
+    00100                11</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/7496a6ad57ba47a1f926</t>
   </si>
 </sst>
 </file>
@@ -1115,11 +1135,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,6 +1935,22 @@
       </c>
       <c r="B94" s="2" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1080" windowWidth="20700" windowHeight="9075"/>
+    <workbookView xWindow="240" yWindow="1140" windowWidth="20700" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>Problem</t>
   </si>
@@ -750,6 +750,24 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/7496a6ad57ba47a1f926</t>
+  </si>
+  <si>
+    <t>Given a Binary tree and a arbirary node of that tree , find all the nodes at a Distance of K from that Node .Nodes DON’T have parent pointers.( Algo + Code )</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/32c7bc0aedfd987ad7c1</t>
+  </si>
+  <si>
+    <t>" Two strings are given. One of them is the initial string and other string contains characters as per their priority. Sort the initial string as per the given second string. characters in initial string may or may not be present in the second string. If not present, sort them in lexicographical order at the end of output. eg. String1 – ddloyc, String2 – odl Output – oddlcy"</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/e759a271a3f8c2d462b9</t>
+  </si>
+  <si>
+    <t>Given array of N integers ranging from 0 to N-1. Output maximum repeating integer. Use only O(1) memory.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/aa0d351331edeb350da2</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -1951,6 +1969,30 @@
       </c>
       <c r="B96" s="2" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1140" windowWidth="20700" windowHeight="9015"/>
+    <workbookView xWindow="240" yWindow="1200" windowWidth="20700" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Problem</t>
   </si>
@@ -768,6 +768,19 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/aa0d351331edeb350da2</t>
+  </si>
+  <si>
+    <t>Given a sentence. Find all the characters which are repeated more than 1 time and print them in lexicographical order.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/01039d9efa36db634c19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Given an array of n numbers with repetition of numbers. You need to find the max length of continuous sub array with at max 3 unique elements. For eg array: 1 2 3 1 4 3 4 1 2 ans: 6 (3 1 4 3 4 1) Solution: Time complexity O(n) Extra Space O(1) "</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/245846bb23eb2ad34ed2</t>
   </si>
 </sst>
 </file>
@@ -1153,11 +1166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,6 +2006,22 @@
       </c>
       <c r="B99" s="2" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Problem</t>
   </si>
@@ -781,6 +781,19 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/245846bb23eb2ad34ed2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1) In a Tic-Tac-Toe game two players are playing where player 0 is denoted as 0 and player 1 is denoted as 1. Given a linked list of moves made by the players ,determine who is the winner and in how many moves he required for winning.
+Struct Move {
+   int p;    //Player number
+   int x;    //x and y pos in the tic-tac-toi
+   int y;
+  struct Move *next;
+};</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/f54fc4952bc2a8020e1a</t>
   </si>
 </sst>
 </file>
@@ -1166,11 +1179,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,6 +2035,14 @@
       </c>
       <c r="B101" s="2" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Problem</t>
   </si>
@@ -794,6 +794,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/f54fc4952bc2a8020e1a</t>
+  </si>
+  <si>
+    <t>Given an array of size N, a window of size W slides over it by increment of slide S. If the window reaches to the end, we should stop there. Find a formula in form of N, S, W so that we can find the number of valid windows. Write a program to find minimum in every window and print it. Optimize it. e.g. {1,2,3,4,5}, W=2, S=1 first window: {1,2} min=1 second window(increment by S=1): {2,3}, min=2 … last window: {4,5}, min=4 The array might not be sorted. I have taken sorted array for simplicity.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/ae316f831415f28d6dec</t>
   </si>
 </sst>
 </file>
@@ -1179,11 +1185,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,6 +2049,14 @@
       </c>
       <c r="B102" s="2" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1200" windowWidth="20700" windowHeight="8955"/>
+    <workbookView xWindow="240" yWindow="1260" windowWidth="20700" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Problem</t>
   </si>
@@ -800,6 +800,18 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/ae316f831415f28d6dec</t>
+  </si>
+  <si>
+    <t>" An array of size n is given. The array contains digits from 0 to 9. I had to generate the maximum number using the digits in the array such that it is divisible by 2, 3 and 5 eg: 1 array = 18760, output must be: 8760 eg: 2 array = 7776, output must be: “no number can be formed” "</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/9fbc8fda664ba22d8015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Given an array and a fixed window size X, you have to find out the minimum value from every window. </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/e0a120dfd0bd17441827</t>
   </si>
 </sst>
 </file>
@@ -1185,11 +1197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,6 +2069,22 @@
       </c>
       <c r="B103" s="2" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1260" windowWidth="20700" windowHeight="8895"/>
+    <workbookView xWindow="240" yWindow="1320" windowWidth="20700" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Problem</t>
   </si>
@@ -812,6 +812,55 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/e0a120dfd0bd17441827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given two trees check if they are mirror images of each other or not.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/8b6e46b32cf0211e4f97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array of +ve as well as -ve numbers, find out whether it is possible or not to convert it to 0 by adding/subtracting operations on all the elements.
+e.g arr[]={1,2,3}
+YES (1+2-3)
+arr[]={3,6,2}
+3+6-2 != 0
+3-6-2 !=0
+-3-6-2 !=0
+-3-6+2 !=0
+-3+6-2 !=0
+-3+6+2 !=0
+3-6+2 !=0
+3+6+2 !=0
+Hence ans= NO</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/1adcee462559548211c4</t>
+  </si>
+  <si>
+    <t>"Design a stack which holds an integer value such that getMinimum() function should return the minimum element in the stack. FOLLOW UP: Implement popMin() function which would pop minimum element from the original stack. O(1) implementation was required.(Hint: Use LinkedList to implement stack and store address of minimum element node in min-stack) "</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/264cbb8c9e5abdfb2777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of n distinct integers sorted in ascending order. Find an index i s.t ar[i] = i. Return -1 if no such index exists. Note that integers in array can be negative.
+</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/3e58f4949e5163b9a8c0</t>
+  </si>
+  <si>
+    <t>given a string or say number .. for e.g. 134 now with each number , as per mobile’s keypad , some letters would be associated.
+here 1 – &gt; abc , 3-&gt;ghi, 4 -&gt;jkl . So we should print all the permutation such that we take 1 character from each of the number.
+input number can be of any arbitrary length.
+lets say each digit has m numbers associated , then for the input of length n , we need to generate n^m possible strings.
+Took a map of which would return all the letters for the number. solved it using recursion. its quite similar to permutation of string. .</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/5cbd2d7b1db8b228d2dc</t>
   </si>
 </sst>
 </file>
@@ -883,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -895,6 +944,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1197,11 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2085,6 +2137,46 @@
       </c>
       <c r="B105" s="2" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1320" windowWidth="20700" windowHeight="8835"/>
+    <workbookView xWindow="240" yWindow="1380" windowWidth="20700" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>Problem</t>
   </si>
@@ -861,6 +861,26 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/5cbd2d7b1db8b228d2dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are involved in a betting game whose rules are as follows :
+a) if you win a round, the bet amount will be added to your sum and next bet amount will be $1;
+b) if you lose a round, the bet amount will be reduced from your total sum and next bet will be twice the previous.
+c) game ends when all the rounds are complete or you dont have sufficient sum.
+Initially, you are given with a string of the form “WLWWL” where W indicates a win and L indicates a loss and initial sum. Initial bet amount will be $1.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/84456c89c2ac499bff0b</t>
+  </si>
+  <si>
+    <t>You have some packages and you have to decide the build order for them.
+A package should be built before the packages that depend on it.
+For example. A={B,C}, B={D}, C={}, D={E}, E={}, F={}
+So one possible build order for package “A” is E, D, B, C, A.
+You have to write a function which will take the package name and will return its build order. You have API which will return you the list of packages on which calling package depends on. For example, the API will return B and C in a list when you call it providing the parameter as package A.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/2c04b5fea3822e28979c</t>
   </si>
 </sst>
 </file>
@@ -1249,11 +1269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,6 +2197,22 @@
       </c>
       <c r="B110" s="2" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Problem</t>
   </si>
@@ -881,6 +881,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/2c04b5fea3822e28979c</t>
+  </si>
+  <si>
+    <t>"Given linked list as a-x-b-y-c-z output it as a-b-c-z-y-x that is reverse alternate element and append to end of list"</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/7a52181ebce7b53e0bd4</t>
   </si>
 </sst>
 </file>
@@ -1269,11 +1275,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,6 +2219,14 @@
       </c>
       <c r="B112" s="2" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>Problem</t>
   </si>
@@ -887,6 +887,18 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/7a52181ebce7b53e0bd4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"
+There is a N*N integer matrix Arr[N][N]. From the row r and column c, we can go to any of the following three indices:
+I.                Arr[ r+1 ][ c-1 ] (valid only if c-1&gt;=0)
+II.               Arr[ r+1 ][ c ]
+III.              Arr[ r+1 ][ c+1 ] (valid only if c+1&lt;=N-1)
+So if we start at any column index on row 0, what is the largest sum of any of the paths till row N-1."
+</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/9dcbbf9acf148e98f466</t>
   </si>
 </sst>
 </file>
@@ -1275,11 +1287,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,6 +2239,14 @@
       </c>
       <c r="B113" s="2" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>Problem</t>
   </si>
@@ -889,16 +889,36 @@
     <t>https://gist.github.com/baranis/7a52181ebce7b53e0bd4</t>
   </si>
   <si>
-    <t xml:space="preserve">"
+    <t>https://gist.github.com/baranis/9dcbbf9acf148e98f466</t>
+  </si>
+  <si>
+    <t>http://ideone.com/OvUc5c</t>
+  </si>
+  <si>
+    <t>http://ideone.com/wVZHWI</t>
+  </si>
+  <si>
+    <t>http://ideone.com/kYqkmz</t>
+  </si>
+  <si>
+    <t>"
 There is a N*N integer matrix Arr[N][N]. From the row r and column c, we can go to any of the following three indices:
 I.                Arr[ r+1 ][ c-1 ] (valid only if c-1&gt;=0)
 II.               Arr[ r+1 ][ c ]
 III.              Arr[ r+1 ][ c+1 ] (valid only if c+1&lt;=N-1)
-So if we start at any column index on row 0, what is the largest sum of any of the paths till row N-1."
-</t>
-  </si>
-  <si>
-    <t>https://gist.github.com/baranis/9dcbbf9acf148e98f466</t>
+So if we start at any column index on row 0, what is the largest sum of any of the paths till row N-1."</t>
+  </si>
+  <si>
+    <t>Level Order Traversal With Queues</t>
+  </si>
+  <si>
+    <t>http://ideone.com/DjOoDt</t>
+  </si>
+  <si>
+    <t>Level Order Traversal Without Queues</t>
+  </si>
+  <si>
+    <t>http://ideone.com/WV10Vq</t>
   </si>
 </sst>
 </file>
@@ -1287,11 +1307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1343,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +1365,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1353,7 +1373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1361,15 +1381,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1411,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1399,7 +1422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1407,7 +1430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1426,7 +1449,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1442,7 +1465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1450,7 +1473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1458,7 +1481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1466,7 +1489,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1482,7 +1505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1490,7 +1513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1501,7 +1524,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1509,7 +1532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1517,7 +1540,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +1548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1533,7 +1556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1544,7 +1567,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
@@ -1552,7 +1575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -1563,7 +1586,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
@@ -1571,7 +1594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1579,7 +1602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1590,7 +1613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -1598,7 +1621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -1606,7 +1629,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -1617,7 +1640,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -1625,15 +1648,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1641,7 +1667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -1649,7 +1675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -1657,7 +1683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -1665,7 +1691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>88</v>
       </c>
@@ -1673,7 +1699,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1681,7 +1707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
@@ -1689,7 +1715,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1697,7 +1723,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
@@ -1705,7 +1731,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>99</v>
       </c>
@@ -1713,7 +1739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1721,7 +1747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -1729,7 +1755,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>106</v>
       </c>
@@ -1737,7 +1763,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -1745,7 +1771,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>114</v>
       </c>
@@ -1753,7 +1779,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>115</v>
       </c>
@@ -1761,7 +1787,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>118</v>
       </c>
@@ -1769,7 +1795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>120</v>
       </c>
@@ -1777,7 +1803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>122</v>
       </c>
@@ -1785,7 +1811,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -1793,7 +1819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>126</v>
       </c>
@@ -1801,7 +1827,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>128</v>
       </c>
@@ -1809,7 +1835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>130</v>
       </c>
@@ -1817,7 +1843,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>132</v>
       </c>
@@ -1825,7 +1851,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>135</v>
       </c>
@@ -1833,7 +1859,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>136</v>
       </c>
@@ -1841,7 +1867,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>138</v>
       </c>
@@ -1849,7 +1875,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>140</v>
       </c>
@@ -1857,7 +1883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>142</v>
       </c>
@@ -1865,7 +1891,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>144</v>
       </c>
@@ -1873,7 +1899,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>146</v>
       </c>
@@ -1881,7 +1907,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>148</v>
       </c>
@@ -1889,7 +1915,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>150</v>
       </c>
@@ -1897,7 +1923,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>152</v>
       </c>
@@ -1905,7 +1931,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>154</v>
       </c>
@@ -1913,7 +1939,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>156</v>
       </c>
@@ -1921,7 +1947,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>158</v>
       </c>
@@ -1929,7 +1955,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>160</v>
       </c>
@@ -1937,7 +1963,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>162</v>
       </c>
@@ -1945,7 +1971,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -1953,7 +1979,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>166</v>
       </c>
@@ -1961,7 +1987,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>168</v>
       </c>
@@ -1969,7 +1995,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>170</v>
       </c>
@@ -1977,7 +2003,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -1985,7 +2011,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>174</v>
       </c>
@@ -1993,7 +2019,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>176</v>
       </c>
@@ -2001,7 +2027,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -2009,7 +2035,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>180</v>
       </c>
@@ -2017,7 +2043,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>182</v>
       </c>
@@ -2025,7 +2051,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>184</v>
       </c>
@@ -2033,7 +2059,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>186</v>
       </c>
@@ -2041,7 +2067,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>188</v>
       </c>
@@ -2049,7 +2075,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>190</v>
       </c>
@@ -2057,7 +2083,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>192</v>
       </c>
@@ -2065,7 +2091,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>194</v>
       </c>
@@ -2073,7 +2099,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>196</v>
       </c>
@@ -2081,7 +2107,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>198</v>
       </c>
@@ -2089,7 +2115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>200</v>
       </c>
@@ -2097,7 +2123,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>202</v>
       </c>
@@ -2105,7 +2131,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>204</v>
       </c>
@@ -2113,7 +2139,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>206</v>
       </c>
@@ -2121,7 +2147,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>208</v>
       </c>
@@ -2129,7 +2155,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>210</v>
       </c>
@@ -2137,7 +2163,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>212</v>
       </c>
@@ -2145,7 +2171,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>214</v>
       </c>
@@ -2153,7 +2179,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>216</v>
       </c>
@@ -2161,7 +2187,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>218</v>
       </c>
@@ -2169,7 +2195,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>220</v>
       </c>
@@ -2177,7 +2203,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>222</v>
       </c>
@@ -2185,7 +2211,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>224</v>
       </c>
@@ -2193,7 +2219,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>226</v>
       </c>
@@ -2201,7 +2227,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>228</v>
       </c>
@@ -2209,7 +2235,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>230</v>
       </c>
@@ -2217,15 +2243,18 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>234</v>
       </c>
@@ -2233,7 +2262,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>236</v>
       </c>
@@ -2241,12 +2270,28 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>239</v>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2265,9 +2310,14 @@
     <hyperlink ref="B44" r:id="rId12"/>
     <hyperlink ref="B60" r:id="rId13"/>
     <hyperlink ref="B74" r:id="rId14"/>
+    <hyperlink ref="C7" r:id="rId15"/>
+    <hyperlink ref="C111" r:id="rId16"/>
+    <hyperlink ref="C37" r:id="rId17"/>
+    <hyperlink ref="C115" r:id="rId18"/>
+    <hyperlink ref="C116" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Problem</t>
   </si>
@@ -919,6 +919,12 @@
   </si>
   <si>
     <t>http://ideone.com/WV10Vq</t>
+  </si>
+  <si>
+    <t>Rotate a 2-D Matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/658739fb32115149f7ee</t>
   </si>
 </sst>
 </file>
@@ -1307,11 +1313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,6 +2298,14 @@
       </c>
       <c r="C116" s="2" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -90,9 +90,6 @@
     <t>https://gist.github.com/baranis/42d61bc5fca18843c620</t>
   </si>
   <si>
-    <t>Find the ceil and floor of a value in a given BST without extra space. if a BST contains 1 3 6 7 9 12 -&gt;if the given value is 8 floor is 7 and ceil is 9. -&gt;if the given value is 9 both floor and ceil is 9.</t>
-  </si>
-  <si>
     <t>A sorted array has been rotated r times to the left. Find r in least possible time.</t>
   </si>
   <si>
@@ -925,6 +922,12 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/658739fb32115149f7ee</t>
+  </si>
+  <si>
+    <t>Find the ceil and floor of a value in a given BST without extra space.
+ if a BST contains 1 3 6 7 9 12 
+-&gt;if the given value is 8 floor is 7 and ceil is 9. 
+-&gt;if the given value is 9 both floor and ceil is 9.</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1319,8 @@
   <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,7 +1398,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1414,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1425,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1438,7 +1441,7 @@
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -1446,866 +1449,866 @@
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C32" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Problem</t>
   </si>
@@ -929,12 +929,34 @@
 -&gt;if the given value is 8 floor is 7 and ceil is 9. 
 -&gt;if the given value is 9 both floor and ceil is 9.</t>
   </si>
+  <si>
+    <t>Given an circular linked list. convert it into non-circular . no link or data can be changed.
+(basically find start node of circular list and de-link it )</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/2a9399e51c65805dc3c2</t>
+  </si>
+  <si>
+    <t>Given a string, remove ‘a’, ‘bc’ from the string and print the result. Algo + Code Ex: asdbc – sd</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/bda870a66018c3dd80e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a string, find the first element which is non -repetitive i.e that element must not be present anywhere else in the string.
+          Eg : Input : teeterson      
+               Output : r, as it is the first element which 
+                        is non repetitive. </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/718f51bb7251cb1c0a63</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,6 +986,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -999,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1014,6 +1042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1316,11 +1345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,6 +2338,30 @@
       </c>
       <c r="B117" s="2" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>Problem</t>
   </si>
@@ -950,6 +950,24 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/718f51bb7251cb1c0a63</t>
+  </si>
+  <si>
+    <t>Print all nodes that are at distance k from a leaf node</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/3f06f159aacc49697fac</t>
+  </si>
+  <si>
+    <t>ReverseEveryKNodes</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/1ba89234698fbe642e04</t>
+  </si>
+  <si>
+    <t>GetAllUniqueNodesKDistanceFromRoot</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/b8d75d53c53734176d2e</t>
   </si>
 </sst>
 </file>
@@ -1345,11 +1363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,6 +2380,30 @@
       </c>
       <c r="B120" s="2" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Problem</t>
   </si>
@@ -952,22 +952,16 @@
     <t>https://gist.github.com/baranis/718f51bb7251cb1c0a63</t>
   </si>
   <si>
-    <t>Print all nodes that are at distance k from a leaf node</t>
-  </si>
-  <si>
-    <t>https://gist.github.com/baranis/3f06f159aacc49697fac</t>
-  </si>
-  <si>
-    <t>ReverseEveryKNodes</t>
-  </si>
-  <si>
-    <t>https://gist.github.com/baranis/1ba89234698fbe642e04</t>
-  </si>
-  <si>
-    <t>GetAllUniqueNodesKDistanceFromRoot</t>
-  </si>
-  <si>
-    <t>https://gist.github.com/baranis/b8d75d53c53734176d2e</t>
+    <t>http://ideone.com/ymyLOU</t>
+  </si>
+  <si>
+    <t>UniqueNodes at K Distance From Root,Assuming No Duplicate Values at Nodes</t>
+  </si>
+  <si>
+    <t>Reverse Every K Nodes in Linked List</t>
+  </si>
+  <si>
+    <t>http://ideone.com/25I7AF</t>
   </si>
 </sst>
 </file>
@@ -1363,11 +1357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,26 +2378,18 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2427,9 +2413,11 @@
     <hyperlink ref="C37" r:id="rId17"/>
     <hyperlink ref="C115" r:id="rId18"/>
     <hyperlink ref="C116" r:id="rId19"/>
+    <hyperlink ref="C121" r:id="rId20"/>
+    <hyperlink ref="C122" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Problem</t>
   </si>
@@ -962,6 +962,18 @@
   </si>
   <si>
     <t>http://ideone.com/25I7AF</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/1ba89234698fbe642e04</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/b8d75d53c53734176d2e</t>
+  </si>
+  <si>
+    <t>Print all nodes that are at distance k from a leaf node</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/3f06f159aacc49697fac</t>
   </si>
 </sst>
 </file>
@@ -1357,11 +1369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,6 +2392,9 @@
       <c r="A121" s="3" t="s">
         <v>256</v>
       </c>
+      <c r="B121" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="C121" s="2" t="s">
         <v>255</v>
       </c>
@@ -2388,8 +2403,19 @@
       <c r="A122" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="B122" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="C122" s="2" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -15,6 +15,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>WIN764BIT</author>
+  </authors>
+  <commentList>
+    <comment ref="B122" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>WIN764BIT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Review Pending by sarath
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C122" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>WIN764BIT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Reverse nodes in single parse
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
@@ -980,7 +1040,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,6 +1076,19 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1368,12 +1441,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,6 +2517,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -21,6 +21,31 @@
     <author>WIN764BIT</author>
   </authors>
   <commentList>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>WIN764BIT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Reviewed
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B122" authorId="0">
       <text>
         <r>
@@ -76,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Problem</t>
   </si>
@@ -103,9 +128,6 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/476defe27451b4cb5431</t>
-  </si>
-  <si>
-    <t>Given a matrix with 1s and 0s, u have to construct a matrix such that a[i][j]=1, if only every element in ith row and jth column is 1, otherwise 0. You have to use constant space and O(mn) time complexity.</t>
   </si>
   <si>
     <t>https://gist.github.com/baranis/081d471e56856598357d</t>
@@ -1034,6 +1056,15 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/3f06f159aacc49697fac</t>
+  </si>
+  <si>
+    <t>http://ideone.com/yobE1U</t>
+  </si>
+  <si>
+    <t>Given a matrix with 1s and 0s, 
+u have to construct a matrix such that a[i][j]=1, 
+if only every element in ith row and jth column is 1, otherwise 0. 
+You have to use constant space and O(mn) time complexity.</t>
   </si>
 </sst>
 </file>
@@ -1444,9 +1475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,998 +1528,1001 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+      <c r="C6" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C32" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2514,10 +2548,11 @@
     <hyperlink ref="C116" r:id="rId19"/>
     <hyperlink ref="C121" r:id="rId20"/>
     <hyperlink ref="C122" r:id="rId21"/>
+    <hyperlink ref="C6" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1380" windowWidth="20700" windowHeight="8775"/>
+    <workbookView xWindow="240" yWindow="1620" windowWidth="20700" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>WIN764BIT:</t>
         </r>
@@ -38,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Reviewed
@@ -54,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>WIN764BIT:</t>
         </r>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Review Pending by sarath
@@ -79,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>WIN764BIT:</t>
         </r>
@@ -88,7 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Reverse nodes in single parse
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>Problem</t>
   </si>
@@ -1066,12 +1066,138 @@
 if only every element in ith row and jth column is 1, otherwise 0. 
 You have to use constant space and O(mn) time complexity.</t>
   </si>
+  <si>
+    <t>Print an organisational hierarchy.
+Naveen manages Satish
+Satish manages Anushree
+Satish manages Sandeep
+Gurinder manages Naveen
+Gurinder-&gt;Naveen
+Naveen-&gt;Satish
+Satish-&gt;Anushree,Sandeep
+Anushree-&gt;
+Sandeep-&gt;</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/672c86e95f9daa557e47</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/b63462a5f2e215338871</t>
+  </si>
+  <si>
+    <t>Given a grid with size m,n. Find the total number of distinct paths which starts from the start of the grip (top left corner say (0.0)) and reaches end of the grid (bottom right corner say (m-1,n-2)). On condition that you can only move in right direction i.e. positive x direction (+1, 0) or in up direction i.e. positive y direction (0, +1) from any given position.</t>
+  </si>
+  <si>
+    <t>There is a sentence that your friend knows, but while giving it to you, he lost all the spaces. 
+You have to dictionary with you. How would you reconstruct the original sentence using it.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/4dcbf1ad9e80da4fd528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array of numbers find the maximum count of duplets and triplets such that there sum is a multiple of three. Number that has appeared once can’t be included anywhere else.
+I solved this question using a property of modulus.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/1009727919f7846c74a5</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/348ea86ba2f1e0594f75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In a Binary tree, every element must contain the sum of its sub-trees
+Follow up question: how would you solve this if you can ONLY increment the value of a node
+Eg. If a node’s value is 20 and its sub-tree sum is 10, the node’s value can’t be set to 10 because you can only increment</t>
+  </si>
+  <si>
+    <t> linked list palindrome-alpha numeric characters-ignore case"</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/187277ea90a5b973d0e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given an array of positive and negative numbers, find the pair of elements whose sum is closest to 0.           Eg : Input :  3 5 -9 -4 17 11                  Output  3 , -4  </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/897b303591e55fe8baca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given an array of integers , replace each element with the product of the remaining elements.
+  Eg : Input - 1 2 3 4     
+       Output : 24 12 8 6 </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/bf5aa8122958a3d9b547</t>
+  </si>
+  <si>
+    <t>Given an array of 1s followed by 0s,find the number of 0s. Eg : Input : 111100 Output =2 Input : 1 Output =0</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/629bff36d57b4a784489</t>
+  </si>
+  <si>
+    <t>Write a function to find the longest common prefix string amongst an array of strings.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/ee729548009444f53cd2</t>
+  </si>
+  <si>
+    <t>Given n, find the smallest number for which product of the digits is n, if no such number exists, print -1
+Note: Digits can only be split as single digits, i.e., 132 can’t considered as 1 * 32 or 13 * 2, it would only be 1 * 3 * 2
+Eg. Answer for 36 would be 49</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/e423183ee12062cb0e44</t>
+  </si>
+  <si>
+    <t>Given an array of characters, find the longest continuous non-repeating sequence of characters. Algo + Code
+Ex: aabcdefdghiajk – efdghiajk</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/9f30dbcb94f00cdf8f56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convert a linkedlist with positive and negative integers into a list with first all negative integers, then positive. order amongst negative and positive numbers to be maintained .</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/4425b9ebbeac5d71cb37</t>
+  </si>
+  <si>
+    <t>Given an array of size n, and an integer k. find minimum number in every subarray of size k</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/0af77bd53537a28b9487</t>
+  </si>
+  <si>
+    <t>Implement lastindexofastring(String s1,String s2) . If s2 is present multiple times return the last index of s2 in s1 , else return -1.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/2572a3a4885cd523251b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a string find the repeated characters and print them in lexicographical order. e.g i/p string- “ABCCAD” o/p-”AC”</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/1ba4d895e0339e313c16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given stock price of Amazon for some consecutive days. Need to find the maximum span of each day’s stock price. Span is the amount of days before the given day where the stock price is less than that of given day
+E.g i/p = {2,4,6,9,5,1}
+      o/p= { -1,1,2,3,2,-1} </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/75e82d5e7afd12f56da7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,17 +1238,24 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,6 +1274,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1155,7 +1294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1171,6 +1310,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1473,11 +1621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,6 +2671,142 @@
       </c>
       <c r="B123" s="2" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsAndSolution.xlsx
+++ b/ProblemsAndSolution.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>Problem</t>
   </si>
@@ -1191,6 +1191,18 @@
   </si>
   <si>
     <t>https://gist.github.com/baranis/75e82d5e7afd12f56da7</t>
+  </si>
+  <si>
+    <t>Reverse Stack Without Any DataStructure</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/ed394ee68094d654fcc1</t>
+  </si>
+  <si>
+    <t>Given a binary tree and a level number. Return the minimum number in that level.</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/baranis/c207bf895d084bdf3f4f</t>
   </si>
 </sst>
 </file>
@@ -1621,11 +1633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,6 +2819,22 @@
       </c>
       <c r="B140" s="2" t="s">
         <v>297</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>298</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>300</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
